--- a/테스트서브.xlsx
+++ b/테스트서브.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="10185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -492,7 +492,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
